--- a/documentation/bike-power-function.xlsx
+++ b/documentation/bike-power-function.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjp/Documents/Projects/2023-10 bike bluetooth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjp/.bin/github/bluetooth-reebok-57e/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA6F9A-C1B0-D945-A1BF-132193D4EFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641B31C-5056-C447-A7A4-F65974153186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="500" windowWidth="22840" windowHeight="21900" activeTab="1" xr2:uid="{45F29AC9-28D1-A149-A3FF-7BC8DDFBBC4B}"/>
   </bookViews>
@@ -3697,7 +3697,7 @@
   <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3789,7 +3789,7 @@
         <v>60</v>
       </c>
       <c r="J4" s="8">
-        <f>G4*G4*$M$4+G4*$M$7+H4*$M$8+H4*H4*$M$5+H4*G4*$M$6+$M$9</f>
+        <f t="shared" ref="J4:J19" si="0">G4*G4*$M$4+G4*$M$7+H4*$M$8+H4*H4*$M$5+H4*G4*$M$6+$M$9</f>
         <v>55.676719925089628</v>
       </c>
       <c r="K4" s="2">
@@ -3826,11 +3826,11 @@
         <v>60</v>
       </c>
       <c r="J5" s="8">
-        <f>G5*G5*$M$4+G5*$M$7+H5*$M$8+H5*H5*$M$5+H5*G5*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>54.731853480377652</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K19" si="0">J5-I5</f>
+        <f t="shared" ref="K5:K19" si="1">J5-I5</f>
         <v>-5.2681465196223485</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -3863,11 +3863,11 @@
         <v>60</v>
       </c>
       <c r="J6" s="8">
-        <f>G6*G6*$M$4+G6*$M$7+H6*$M$8+H6*H6*$M$5+H6*G6*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>54.769613087593683</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.2303869124063169</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -3900,15 +3900,15 @@
         <v>100</v>
       </c>
       <c r="J7" s="8">
-        <f>G7*G7*$M$4+G7*$M$7+H7*$M$8+H7*H7*$M$5+H7*G7*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>104.6113661383917</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.611366138391702</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M7" s="6">
         <v>3.9419067852362741</v>
@@ -3937,11 +3937,11 @@
         <v>100</v>
       </c>
       <c r="J8" s="8">
-        <f>G8*G8*$M$4+G8*$M$7+H8*$M$8+H8*H8*$M$5+H8*G8*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>106.83428181914422</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8342818191442234</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -3970,11 +3970,11 @@
         <v>100</v>
       </c>
       <c r="J9" s="8">
-        <f>G9*G9*$M$4+G9*$M$7+H9*$M$8+H9*H9*$M$5+H9*G9*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>103.07657048556567</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0765704855656679</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -3998,11 +3998,11 @@
         <v>150</v>
       </c>
       <c r="J10" s="8">
-        <f>G10*G10*$M$4+G10*$M$7+H10*$M$8+H10*H10*$M$5+H10*G10*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>153.88179316329834</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8817931632983402</v>
       </c>
     </row>
@@ -4020,11 +4020,11 @@
         <v>150</v>
       </c>
       <c r="J11" s="8">
-        <f>G11*G11*$M$4+G11*$M$7+H11*$M$8+H11*H11*$M$5+H11*G11*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>146.19891519745167</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8010848025483313</v>
       </c>
     </row>
@@ -4042,11 +4042,11 @@
         <v>190</v>
       </c>
       <c r="J12" s="8">
-        <f>G12*G12*$M$4+G12*$M$7+H12*$M$8+H12*H12*$M$5+H12*G12*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>196.38084187143428</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3808418714342849</v>
       </c>
     </row>
@@ -4064,11 +4064,11 @@
         <v>150</v>
       </c>
       <c r="J13" s="8">
-        <f>G13*G13*$M$4+G13*$M$7+H13*$M$8+H13*H13*$M$5+H13*G13*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>157.94612678456483</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9461267845648251</v>
       </c>
     </row>
@@ -4086,11 +4086,11 @@
         <v>190</v>
       </c>
       <c r="J14" s="8">
-        <f>G14*G14*$M$4+G14*$M$7+H14*$M$8+H14*H14*$M$5+H14*G14*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>185.81024468224413</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.1897553177558677</v>
       </c>
     </row>
@@ -4108,11 +4108,11 @@
         <v>240</v>
       </c>
       <c r="J15" s="8">
-        <f>G15*G15*$M$4+G15*$M$7+H15*$M$8+H15*H15*$M$5+H15*G15*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>239.12658668605522</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.87341331394478061</v>
       </c>
     </row>
@@ -4130,11 +4130,11 @@
         <v>240</v>
       </c>
       <c r="J16" s="8">
-        <f>G16*G16*$M$4+G16*$M$7+H16*$M$8+H16*H16*$M$5+H16*G16*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>225.66827027352159</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14.331729726478414</v>
       </c>
     </row>
@@ -4152,11 +4152,11 @@
         <v>190</v>
       </c>
       <c r="J17" s="8">
-        <f>G17*G17*$M$4+G17*$M$7+H17*$M$8+H17*H17*$M$5+H17*G17*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>194.83420111700386</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8342011170038575</v>
       </c>
     </row>
@@ -4174,11 +4174,11 @@
         <v>240</v>
       </c>
       <c r="J18" s="8">
-        <f>G18*G18*$M$4+G18*$M$7+H18*$M$8+H18*H18*$M$5+H18*G18*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>238.18208430610125</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8179156938987546</v>
       </c>
     </row>
@@ -4193,11 +4193,11 @@
         <v>280</v>
       </c>
       <c r="J19" s="8">
-        <f>G19*G19*$M$4+G19*$M$7+H19*$M$8+H19*H19*$M$5+H19*G19*$M$6+$M$9</f>
+        <f t="shared" si="0"/>
         <v>281.86574830680331</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8657483068033116</v>
       </c>
       <c r="L19" s="2"/>
